--- a/ProyectoPooDist/excels/inventarios.xlsx
+++ b/ProyectoPooDist/excels/inventarios.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Nombre</t>
   </si>
@@ -29,31 +29,28 @@
     <t>Existencias</t>
   </si>
   <si>
-    <t>pollo Inicio Pelatizado</t>
+    <t>producto 1</t>
   </si>
   <si>
-    <t>Comayma</t>
+    <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">Vaca Lechera </t>
+    <t>producto 2</t>
   </si>
   <si>
-    <t>Pranta del Prado</t>
+    <t>2</t>
   </si>
   <si>
-    <t>Forramayma</t>
+    <t>producto 3</t>
   </si>
   <si>
-    <t>Equinos Plus</t>
+    <t>3</t>
   </si>
   <si>
-    <t>Planta del Prado</t>
+    <t>producto 4</t>
   </si>
   <si>
-    <t>Lactomayma</t>
-  </si>
-  <si>
-    <t>Ponedora Fase 1</t>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -98,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -129,13 +126,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>240.0</v>
+        <v>1.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>62.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -146,13 +143,13 @@
         <v>8</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>190.0</v>
+        <v>2.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>150.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -160,67 +157,33 @@
         <v>9</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>132.0</v>
+        <v>3.0</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>3.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>900.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>230.0</v>
+        <v>4.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>150.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C6" t="n" s="0">
-        <v>179.0</v>
-      </c>
-      <c r="D6" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="E6" t="n" s="0">
-        <v>300.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C7" t="n" s="0">
-        <v>230.0</v>
-      </c>
-      <c r="D7" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="E7" t="n" s="0">
-        <v>160.0</v>
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>

--- a/ProyectoPooDist/excels/inventarios.xlsx
+++ b/ProyectoPooDist/excels/inventarios.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Nombre</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>Ponedora Fase 1</t>
+  </si>
+  <si>
+    <t>Miamix</t>
+  </si>
+  <si>
+    <t>Manuel</t>
   </si>
 </sst>
 </file>
@@ -98,7 +104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -223,6 +229,23 @@
         <v>160.0</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>500.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>123.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>14.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ProyectoPooDist/excels/inventarios.xlsx
+++ b/ProyectoPooDist/excels/inventarios.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Nombre</t>
   </si>
@@ -56,10 +56,13 @@
     <t>Ponedora Fase 1</t>
   </si>
   <si>
-    <t>Miamix</t>
-  </si>
-  <si>
-    <t>Manuel</t>
+    <t>Gatimar</t>
+  </si>
+  <si>
+    <t>Hill</t>
+  </si>
+  <si>
+    <t>Ponedora Fase 2</t>
   </si>
 </sst>
 </file>
@@ -104,7 +107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -237,13 +240,30 @@
         <v>15</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>500.0</v>
+        <v>10.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>123.0</v>
+        <v>3.0</v>
       </c>
       <c r="E8" t="n" s="0">
         <v>14.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>256.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>30.0</v>
       </c>
     </row>
   </sheetData>

--- a/ProyectoPooDist/excels/inventarios.xlsx
+++ b/ProyectoPooDist/excels/inventarios.xlsx
@@ -144,7 +144,7 @@
         <v>3.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>62.0</v>
+        <v>212.0</v>
       </c>
     </row>
     <row r="3">
@@ -161,7 +161,7 @@
         <v>3.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>150.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="4">
@@ -178,7 +178,7 @@
         <v>3.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>900.0</v>
+        <v>1050.0</v>
       </c>
     </row>
     <row r="5">
@@ -195,7 +195,7 @@
         <v>3.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>150.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="6">
@@ -212,7 +212,7 @@
         <v>3.0</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>300.0</v>
+        <v>450.0</v>
       </c>
     </row>
     <row r="7">
@@ -229,7 +229,7 @@
         <v>3.0</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>160.0</v>
+        <v>310.0</v>
       </c>
     </row>
     <row r="8">
@@ -246,7 +246,7 @@
         <v>3.0</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>14.0</v>
+        <v>164.0</v>
       </c>
     </row>
     <row r="9">
@@ -263,7 +263,7 @@
         <v>3.0</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>30.0</v>
+        <v>180.0</v>
       </c>
     </row>
   </sheetData>

--- a/ProyectoPooDist/excels/inventarios.xlsx
+++ b/ProyectoPooDist/excels/inventarios.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseg\Downloads\PROYECTO CINDY\Proyecto-Poo-Dist\ProyectoPooDist\excels\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C7A7F9-61C2-4AE2-BBCE-787B3DCCECB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Inventario Quintales" r:id="rId3" sheetId="1"/>
+    <sheet name="Inventario Quintales" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -65,13 +73,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -81,7 +88,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -99,154 +106,482 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="0">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="n" s="0">
-        <v>240.0</v>
-      </c>
-      <c r="D2" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="E2" t="n" s="0">
-        <v>62.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
+      <c r="C2">
+        <v>240</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="n" s="0">
-        <v>190.0</v>
-      </c>
-      <c r="D3" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="E3" t="n" s="0">
-        <v>150.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
+      <c r="C3">
+        <v>190</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="n" s="0">
-        <v>132.0</v>
-      </c>
-      <c r="D4" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="E4" t="n" s="0">
-        <v>900.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
+      <c r="C4">
+        <v>132</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="n" s="0">
-        <v>230.0</v>
-      </c>
-      <c r="D5" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="E5" t="n" s="0">
-        <v>150.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
+      <c r="C5">
+        <v>230</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="n" s="0">
-        <v>179.0</v>
-      </c>
-      <c r="D6" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="E6" t="n" s="0">
-        <v>300.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
+      <c r="C6">
+        <v>179</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="n" s="0">
-        <v>230.0</v>
-      </c>
-      <c r="D7" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="E7" t="n" s="0">
-        <v>160.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
+      <c r="C7">
+        <v>230</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="n" s="0">
-        <v>500.0</v>
-      </c>
-      <c r="D8" t="n" s="0">
-        <v>123.0</v>
-      </c>
-      <c r="E8" t="n" s="0">
-        <v>14.0</v>
+      <c r="C8">
+        <v>500</v>
+      </c>
+      <c r="D8">
+        <v>123</v>
+      </c>
+      <c r="E8">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ProyectoPooDist/excels/inventarios.xlsx
+++ b/ProyectoPooDist/excels/inventarios.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Nombre</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Ponedora Fase 2</t>
+  </si>
+  <si>
+    <t>Super Vaca Lechera</t>
   </si>
 </sst>
 </file>
@@ -107,7 +110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -144,7 +147,7 @@
         <v>3.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>212.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="3">
@@ -161,7 +164,7 @@
         <v>3.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>300.0</v>
+        <v>1150.0</v>
       </c>
     </row>
     <row r="4">
@@ -178,7 +181,7 @@
         <v>3.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>1050.0</v>
+        <v>1515.0</v>
       </c>
     </row>
     <row r="5">
@@ -195,7 +198,7 @@
         <v>3.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>300.0</v>
+        <v>10150.0</v>
       </c>
     </row>
     <row r="6">
@@ -212,7 +215,7 @@
         <v>3.0</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>450.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="7">
@@ -229,7 +232,7 @@
         <v>3.0</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>310.0</v>
+        <v>1150.0</v>
       </c>
     </row>
     <row r="8">
@@ -246,7 +249,7 @@
         <v>3.0</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>164.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="9">
@@ -263,7 +266,24 @@
         <v>3.0</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>180.0</v>
+        <v>115.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>160.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>150.0</v>
       </c>
     </row>
   </sheetData>

--- a/ProyectoPooDist/excels/inventarios.xlsx
+++ b/ProyectoPooDist/excels/inventarios.xlsx
@@ -141,7 +141,7 @@
         <v>3.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>0.0</v>
+        <v>1710.0</v>
       </c>
     </row>
     <row r="3">
@@ -175,7 +175,7 @@
         <v>3.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>900.0</v>
+        <v>950.0</v>
       </c>
     </row>
     <row r="5">
@@ -209,7 +209,7 @@
         <v>3.0</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>300.0</v>
+        <v>360.0</v>
       </c>
     </row>
     <row r="7">
@@ -226,7 +226,7 @@
         <v>3.0</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>160.0</v>
+        <v>310.0</v>
       </c>
     </row>
     <row r="8">
@@ -243,7 +243,7 @@
         <v>123.0</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>314.0</v>
+        <v>1869.0</v>
       </c>
     </row>
   </sheetData>

--- a/ProyectoPooDist/excels/inventarios.xlsx
+++ b/ProyectoPooDist/excels/inventarios.xlsx
@@ -141,7 +141,7 @@
         <v>3.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>0.0</v>
+        <v>962.0</v>
       </c>
     </row>
     <row r="3">
@@ -158,7 +158,7 @@
         <v>3.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>150.0</v>
+        <v>607.0</v>
       </c>
     </row>
     <row r="4">
@@ -175,7 +175,7 @@
         <v>3.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>900.0</v>
+        <v>803.0</v>
       </c>
     </row>
     <row r="5">
@@ -192,7 +192,7 @@
         <v>3.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>150.0</v>
+        <v>963.0</v>
       </c>
     </row>
     <row r="6">
@@ -209,7 +209,7 @@
         <v>3.0</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>300.0</v>
+        <v>925.0</v>
       </c>
     </row>
     <row r="7">
@@ -226,7 +226,7 @@
         <v>3.0</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>160.0</v>
+        <v>935.0</v>
       </c>
     </row>
     <row r="8">
@@ -243,7 +243,7 @@
         <v>123.0</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>314.0</v>
+        <v>999.0</v>
       </c>
     </row>
   </sheetData>

--- a/ProyectoPooDist/excels/inventarios.xlsx
+++ b/ProyectoPooDist/excels/inventarios.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Nombre</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>Manuel</t>
+  </si>
+  <si>
+    <t>Vaca Lechera 2</t>
+  </si>
+  <si>
+    <t>Nutrimayma Fase 1</t>
   </si>
 </sst>
 </file>
@@ -104,7 +110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -141,7 +147,7 @@
         <v>3.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>962.0</v>
+        <v>590.0</v>
       </c>
     </row>
     <row r="3">
@@ -158,7 +164,7 @@
         <v>3.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>607.0</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="4">
@@ -175,7 +181,7 @@
         <v>3.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>803.0</v>
+        <v>781.0</v>
       </c>
     </row>
     <row r="5">
@@ -192,7 +198,7 @@
         <v>3.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>963.0</v>
+        <v>943.0</v>
       </c>
     </row>
     <row r="6">
@@ -209,7 +215,7 @@
         <v>3.0</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>925.0</v>
+        <v>901.0</v>
       </c>
     </row>
     <row r="7">
@@ -226,7 +232,7 @@
         <v>3.0</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>935.0</v>
+        <v>931.0</v>
       </c>
     </row>
     <row r="8">
@@ -243,7 +249,41 @@
         <v>123.0</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>999.0</v>
+        <v>994.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>145.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>215.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>600.0</v>
       </c>
     </row>
   </sheetData>

--- a/ProyectoPooDist/excels/inventarios.xlsx
+++ b/ProyectoPooDist/excels/inventarios.xlsx
@@ -147,7 +147,7 @@
         <v>3.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>590.0</v>
+        <v>560.0</v>
       </c>
     </row>
     <row r="3">
@@ -164,7 +164,7 @@
         <v>3.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>600.0</v>
+        <v>594.0</v>
       </c>
     </row>
     <row r="4">
@@ -181,7 +181,7 @@
         <v>3.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>781.0</v>
+        <v>777.0</v>
       </c>
     </row>
     <row r="5">
@@ -198,7 +198,7 @@
         <v>3.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>943.0</v>
+        <v>940.0</v>
       </c>
     </row>
     <row r="6">

--- a/ProyectoPooDist/excels/inventarios.xlsx
+++ b/ProyectoPooDist/excels/inventarios.xlsx
@@ -147,7 +147,7 @@
         <v>3.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>560.0</v>
+        <v>5957.0</v>
       </c>
     </row>
     <row r="3">
@@ -181,7 +181,7 @@
         <v>3.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>777.0</v>
+        <v>775.0</v>
       </c>
     </row>
     <row r="5">
@@ -198,7 +198,7 @@
         <v>3.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>940.0</v>
+        <v>990.0</v>
       </c>
     </row>
     <row r="6">
@@ -215,7 +215,7 @@
         <v>3.0</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>901.0</v>
+        <v>1051.0</v>
       </c>
     </row>
     <row r="7">
@@ -266,7 +266,7 @@
         <v>3.0</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>600.0</v>
+        <v>1200.0</v>
       </c>
     </row>
     <row r="10">
@@ -283,7 +283,7 @@
         <v>3.0</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>600.0</v>
+        <v>702.0</v>
       </c>
     </row>
   </sheetData>

--- a/ProyectoPooDist/excels/inventarios.xlsx
+++ b/ProyectoPooDist/excels/inventarios.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Nombre</t>
   </si>
@@ -59,13 +59,16 @@
     <t>Miamix</t>
   </si>
   <si>
-    <t>Manuel</t>
+    <t>Hill</t>
   </si>
   <si>
     <t>Vaca Lechera 2</t>
   </si>
   <si>
     <t>Nutrimayma Fase 1</t>
+  </si>
+  <si>
+    <t>Ponedora Bajo Consumo</t>
   </si>
 </sst>
 </file>
@@ -110,7 +113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -147,7 +150,7 @@
         <v>3.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>5957.0</v>
+        <v>1338.0</v>
       </c>
     </row>
     <row r="3">
@@ -181,7 +184,7 @@
         <v>3.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>775.0</v>
+        <v>827.0</v>
       </c>
     </row>
     <row r="5">
@@ -198,7 +201,7 @@
         <v>3.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>990.0</v>
+        <v>954.0</v>
       </c>
     </row>
     <row r="6">
@@ -215,7 +218,7 @@
         <v>3.0</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>1051.0</v>
+        <v>1100.0</v>
       </c>
     </row>
     <row r="7">
@@ -243,10 +246,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>500.0</v>
+        <v>320.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>123.0</v>
+        <v>3.0</v>
       </c>
       <c r="E8" t="n" s="0">
         <v>994.0</v>
@@ -266,7 +269,7 @@
         <v>3.0</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>1200.0</v>
+        <v>1260.0</v>
       </c>
     </row>
     <row r="10">
@@ -283,7 +286,24 @@
         <v>3.0</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>702.0</v>
+        <v>752.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>240.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>125.0</v>
       </c>
     </row>
   </sheetData>

--- a/ProyectoPooDist/excels/inventarios.xlsx
+++ b/ProyectoPooDist/excels/inventarios.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Nombre</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>Ponedora Bajo Consumo</t>
+  </si>
+  <si>
+    <t>Concent</t>
+  </si>
+  <si>
+    <t>Kaymary</t>
   </si>
 </sst>
 </file>
@@ -113,7 +119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -306,6 +312,23 @@
         <v>125.0</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>500.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ProyectoPooDist/excels/inventarios.xlsx
+++ b/ProyectoPooDist/excels/inventarios.xlsx
@@ -71,7 +71,7 @@
     <t>Ponedora Bajo Consumo</t>
   </si>
   <si>
-    <t>Ponedora fas 2</t>
+    <t>Ponedora fase 2</t>
   </si>
   <si>
     <t xml:space="preserve">Comayma </t>
@@ -162,7 +162,7 @@
         <v>3.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>95.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="3">
@@ -179,7 +179,7 @@
         <v>3.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>100.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="4">
@@ -196,7 +196,7 @@
         <v>3.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>96.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="5">
@@ -213,7 +213,7 @@
         <v>3.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>100.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="6">
@@ -230,7 +230,7 @@
         <v>3.0</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>100.0</v>
+        <v>493.0</v>
       </c>
     </row>
     <row r="7">
@@ -247,7 +247,7 @@
         <v>3.0</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>100.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="8">
@@ -264,7 +264,7 @@
         <v>3.0</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>100.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="9">
@@ -281,7 +281,7 @@
         <v>3.0</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>100.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="10">
@@ -298,7 +298,7 @@
         <v>3.0</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>100.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="11">
@@ -315,7 +315,7 @@
         <v>3.0</v>
       </c>
       <c r="E11" t="n" s="0">
-        <v>105.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="12">
@@ -332,7 +332,7 @@
         <v>3.0</v>
       </c>
       <c r="E12" t="n" s="0">
-        <v>400.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="13">
@@ -349,7 +349,7 @@
         <v>3.0</v>
       </c>
       <c r="E13" t="n" s="0">
-        <v>100.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="14">
@@ -366,7 +366,7 @@
         <v>3.0</v>
       </c>
       <c r="E14" t="n" s="0">
-        <v>18.0</v>
+        <v>1300.0</v>
       </c>
     </row>
   </sheetData>

--- a/ProyectoPooDist/excels/inventarios.xlsx
+++ b/ProyectoPooDist/excels/inventarios.xlsx
@@ -162,7 +162,7 @@
         <v>3.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>100.0</v>
+        <v>2100.0</v>
       </c>
     </row>
     <row r="3">
@@ -179,7 +179,7 @@
         <v>3.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>500.0</v>
+        <v>662.0</v>
       </c>
     </row>
     <row r="4">
@@ -247,7 +247,7 @@
         <v>3.0</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>500.0</v>
+        <v>620.0</v>
       </c>
     </row>
     <row r="8">
@@ -332,7 +332,7 @@
         <v>3.0</v>
       </c>
       <c r="E12" t="n" s="0">
-        <v>500.0</v>
+        <v>1390.0</v>
       </c>
     </row>
     <row r="13">

--- a/ProyectoPooDist/excels/inventarios.xlsx
+++ b/ProyectoPooDist/excels/inventarios.xlsx
@@ -162,7 +162,7 @@
         <v>3.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>2100.0</v>
+        <v>3100.0</v>
       </c>
     </row>
     <row r="3">
@@ -196,7 +196,7 @@
         <v>3.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>500.0</v>
+        <v>499.0</v>
       </c>
     </row>
     <row r="5">
@@ -213,7 +213,7 @@
         <v>3.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>500.0</v>
+        <v>497.0</v>
       </c>
     </row>
     <row r="6">
@@ -247,7 +247,7 @@
         <v>3.0</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>620.0</v>
+        <v>680.0</v>
       </c>
     </row>
     <row r="8">
@@ -298,7 +298,7 @@
         <v>3.0</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>500.0</v>
+        <v>560.0</v>
       </c>
     </row>
     <row r="11">
@@ -332,7 +332,7 @@
         <v>3.0</v>
       </c>
       <c r="E12" t="n" s="0">
-        <v>1390.0</v>
+        <v>390.0</v>
       </c>
     </row>
     <row r="13">
@@ -349,7 +349,7 @@
         <v>3.0</v>
       </c>
       <c r="E13" t="n" s="0">
-        <v>500.0</v>
+        <v>501.0</v>
       </c>
     </row>
     <row r="14">
@@ -366,7 +366,7 @@
         <v>3.0</v>
       </c>
       <c r="E14" t="n" s="0">
-        <v>1300.0</v>
+        <v>300.0</v>
       </c>
     </row>
   </sheetData>

--- a/ProyectoPooDist/excels/inventarios.xlsx
+++ b/ProyectoPooDist/excels/inventarios.xlsx
@@ -281,7 +281,7 @@
         <v>3.0</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>500.0</v>
+        <v>523.0</v>
       </c>
     </row>
     <row r="10">
@@ -332,7 +332,7 @@
         <v>3.0</v>
       </c>
       <c r="E12" t="n" s="0">
-        <v>500.0</v>
+        <v>515.0</v>
       </c>
     </row>
     <row r="13">

--- a/ProyectoPooDist/excels/inventarios.xlsx
+++ b/ProyectoPooDist/excels/inventarios.xlsx
@@ -230,7 +230,7 @@
         <v>3.0</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>493.0</v>
+        <v>498.0</v>
       </c>
     </row>
     <row r="7">
@@ -281,7 +281,7 @@
         <v>3.0</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>523.0</v>
+        <v>546.0</v>
       </c>
     </row>
     <row r="10">
@@ -349,7 +349,7 @@
         <v>3.0</v>
       </c>
       <c r="E13" t="n" s="0">
-        <v>500.0</v>
+        <v>503.0</v>
       </c>
     </row>
     <row r="14">

--- a/ProyectoPooDist/excels/inventarios.xlsx
+++ b/ProyectoPooDist/excels/inventarios.xlsx
@@ -168,7 +168,7 @@
         <v>3.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>194.0</v>
+        <v>193.0</v>
       </c>
     </row>
     <row r="3">
